--- a/medicine/Psychotrope/Primus_(bière)/Primus_(bière).xlsx
+++ b/medicine/Psychotrope/Primus_(bière)/Primus_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Primus_(bi%C3%A8re)</t>
+          <t>Primus_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primus est le nom adopté par diverses marques de bières de différents pays :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Primus_(bi%C3%A8re)</t>
+          <t>Primus_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>En Afrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une bière pils brassée et consommée dans quatre pays d'Afrique centrale, sous licence du groupe Heineken. 
 Elle titrerait légèrement plus qu'en Tchéquie, à 5 %. La Primus est brassée en République démocratique du Congo (depuis 1926, par la Bralima), en République du Congo (par Brasco), au Burundi (par la Brarudi) et au Rwanda (par la Bralirwa).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Primus_(bi%C3%A8re)</t>
+          <t>Primus_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Primus une bière belge de basse fermentation, brassée par la brasserie N.V. Brouwerij Haacht S.A dans la province du Brabant flamand à Boortmeerbeek. Elle fut baptisée Primus en 1975 en l'honneur de Jean Primus Ier, Duc de Brabant.
 Il s'agit d'une bière blonde de type pils premium avec un degré d'alcool de 5,2 %. Le terme premium est garant d'une qualité légèrement supérieure à celle des autres bières pils. La Primus est reconnue comme produit du terroir du Brabant flamand.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Primus_(bi%C3%A8re)</t>
+          <t>Primus_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Tchéquie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une sous-marque bon marché de la Pilsner Urquell. C'est une bière blonde pils titrant 4,2 % vol. 
 </t>
